--- a/Doc/250417_NextSteps_TestsOutcome.xlsx
+++ b/Doc/250417_NextSteps_TestsOutcome.xlsx
@@ -616,7 +616,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -633,12 +633,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFE7E6E6"/>
         <bgColor rgb="FFFBE5D6"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFED7D31"/>
-        <bgColor rgb="FFFF8080"/>
       </patternFill>
     </fill>
     <fill>
@@ -738,7 +732,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -791,11 +785,11 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -803,39 +797,19 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -847,11 +821,43 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -859,38 +865,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -987,7 +961,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1023,7 +997,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1121,15 +1095,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>85680</xdr:colOff>
+      <xdr:colOff>112680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>51840</xdr:rowOff>
+      <xdr:rowOff>42840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>325440</xdr:colOff>
+      <xdr:colOff>352080</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>126000</xdr:rowOff>
+      <xdr:rowOff>116640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1142,8 +1116,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3789000" y="5321520"/>
-          <a:ext cx="6823440" cy="5027040"/>
+          <a:off x="3869280" y="5312520"/>
+          <a:ext cx="6929640" cy="5026680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1158,15 +1132,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2835360</xdr:colOff>
+      <xdr:colOff>2862360</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>13680</xdr:rowOff>
+      <xdr:rowOff>4680</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>927720</xdr:colOff>
+      <xdr:colOff>954360</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>113040</xdr:rowOff>
+      <xdr:rowOff>103680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1179,8 +1153,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3269520" y="10427040"/>
-          <a:ext cx="4233960" cy="6004800"/>
+          <a:off x="3296520" y="10418040"/>
+          <a:ext cx="4332960" cy="6004440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1203,20 +1177,20 @@
   <dimension ref="A1:G93"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
+      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.83163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="81.8571428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="37.4744897959184"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.0969387755102"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.8214285714286"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="37.7959183673469"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="83.265306122449"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.015306122449"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9336734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.3367346938776"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1269,41 +1243,41 @@
       <c r="E4" s="13"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" s="23" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="18" t="n">
+    <row r="5" s="17" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="13" t="n">
         <f aca="false">A4+1</f>
         <v>2</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="20"/>
-      <c r="D5" s="18"/>
-      <c r="E5" s="21" t="s">
+      <c r="C5" s="18"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="22"/>
-    </row>
-    <row r="6" s="24" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="18" t="n">
+      <c r="F5" s="16"/>
+    </row>
+    <row r="6" s="19" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="13" t="n">
         <f aca="false">A5+1</f>
         <v>3</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="21" t="s">
+      <c r="C6" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="18"/>
-      <c r="E6" s="18"/>
-      <c r="F6" s="22"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="13"/>
+      <c r="F6" s="16"/>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="25" t="n">
+      <c r="A7" s="20" t="n">
         <v>4</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
       <c r="C7" s="0"/>
@@ -1312,10 +1286,10 @@
       <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="25" t="n">
+      <c r="A8" s="20" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0"/>
@@ -1324,10 +1298,10 @@
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="25" t="n">
+      <c r="A9" s="20" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="26" t="s">
+      <c r="B9" s="21" t="s">
         <v>14</v>
       </c>
       <c r="C9" s="0"/>
@@ -1335,61 +1309,63 @@
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
     </row>
-    <row r="10" s="29" customFormat="true" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="27" t="n">
+    <row r="10" s="24" customFormat="true" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="22" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="E10" s="30" t="n">
+      <c r="E10" s="25" t="n">
         <v>42862</v>
       </c>
     </row>
-    <row r="11" s="29" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="27" t="n">
+    <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="22" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="28" t="s">
+      <c r="B11" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="C11" s="29" t="n">
+      <c r="C11" s="24" t="n">
         <v>0.1</v>
       </c>
-      <c r="E11" s="30" t="n">
+      <c r="D11" s="0"/>
+      <c r="E11" s="25" t="n">
         <v>42862</v>
       </c>
-    </row>
-    <row r="12" s="23" customFormat="true" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="31" t="n">
+      <c r="F11" s="0"/>
+    </row>
+    <row r="12" s="17" customFormat="true" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="26" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="28" t="s">
+      <c r="B12" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="E12" s="32"/>
-    </row>
-    <row r="13" s="29" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="31" t="n">
+      <c r="E12" s="27"/>
+    </row>
+    <row r="13" s="24" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="26" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="28" t="s">
+      <c r="B13" s="23" t="s">
         <v>18</v>
       </c>
-      <c r="C13" s="23" t="s">
+      <c r="C13" s="17" t="s">
         <v>19</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="30"/>
-    </row>
-    <row r="14" s="23" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="31" t="n">
+      <c r="D13" s="17"/>
+      <c r="E13" s="25"/>
+    </row>
+    <row r="14" s="17" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="26" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="28" t="s">
+      <c r="B14" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="23" t="s">
+      <c r="C14" s="17" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1404,40 +1380,40 @@
       <c r="F15" s="10"/>
     </row>
     <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="25" t="n">
+      <c r="A16" s="20" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="28" t="s">
         <v>23</v>
       </c>
       <c r="C16" s="0"/>
       <c r="D16" s="9"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
-      <c r="G16" s="34"/>
+      <c r="G16" s="29"/>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="n">
+      <c r="A17" s="20" t="n">
         <f aca="false">1+A46</f>
         <v>2</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="28" t="s">
         <v>24</v>
       </c>
       <c r="C17" s="0"/>
       <c r="D17" s="9"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
-      <c r="G17" s="34"/>
+      <c r="G17" s="29"/>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="25" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="26" t="s">
+      <c r="A18" s="20" t="n">
+        <v>3</v>
+      </c>
+      <c r="B18" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="25" t="s">
+      <c r="C18" s="20" t="s">
         <v>26</v>
       </c>
       <c r="D18" s="9"/>
@@ -1452,13 +1428,13 @@
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
     </row>
-    <row r="20" s="37" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="35"/>
-      <c r="B20" s="36"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
-      <c r="E20" s="35"/>
-      <c r="F20" s="35"/>
+    <row r="20" s="32" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="30"/>
+      <c r="B20" s="31"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A21" s="0"/>
@@ -1469,81 +1445,81 @@
       <c r="F21" s="0"/>
     </row>
     <row r="22" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="38"/>
-      <c r="B22" s="39" t="s">
+      <c r="A22" s="33"/>
+      <c r="B22" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="40"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="35"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="33"/>
     </row>
     <row r="23" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="41" t="n">
+      <c r="A23" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B23" s="42" t="s">
+      <c r="B23" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="43" t="s">
+      <c r="C23" s="38" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="41"/>
-      <c r="F23" s="41"/>
+      <c r="D23" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E23" s="36"/>
+      <c r="F23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="41" t="n">
+      <c r="A24" s="36" t="n">
         <f aca="false">A23+1</f>
         <v>2</v>
       </c>
-      <c r="B24" s="42" t="s">
+      <c r="B24" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="C24" s="41" t="s">
+      <c r="C24" s="36" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="41" t="n">
+      <c r="D24" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-    </row>
-    <row r="25" s="46" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="44" t="n">
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+    </row>
+    <row r="25" s="41" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="39" t="n">
         <f aca="false">1+A24</f>
         <v>3</v>
       </c>
-      <c r="B25" s="45" t="s">
+      <c r="B25" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="C25" s="44" t="s">
+      <c r="C25" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="44" t="n">
+      <c r="D25" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-    </row>
-    <row r="26" s="46" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="44" t="n">
+      <c r="E25" s="39"/>
+      <c r="F25" s="39"/>
+    </row>
+    <row r="26" s="41" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="39" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B26" s="45" t="s">
+      <c r="B26" s="40" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="44" t="s">
+      <c r="C26" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D26" s="44" t="n">
+      <c r="D26" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
+      <c r="E26" s="39"/>
+      <c r="F26" s="39"/>
     </row>
     <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="0"/>
@@ -1554,54 +1530,54 @@
       <c r="F27" s="0"/>
     </row>
     <row r="28" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="38"/>
-      <c r="B28" s="39" t="s">
+      <c r="A28" s="33"/>
+      <c r="B28" s="34" t="s">
         <v>36</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38"/>
-      <c r="F28" s="38"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="33"/>
     </row>
     <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="41" t="n">
+      <c r="A29" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41" t="n">
+      <c r="C29" s="36"/>
+      <c r="D29" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="41"/>
-      <c r="F29" s="47" t="s">
+      <c r="E29" s="36"/>
+      <c r="F29" s="42" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="41" t="n">
+      <c r="A30" s="36" t="n">
         <f aca="false">A29+1</f>
         <v>2</v>
       </c>
-      <c r="B30" s="42" t="s">
+      <c r="B30" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="C30" s="41"/>
-      <c r="D30" s="41" t="n">
+      <c r="C30" s="36"/>
+      <c r="D30" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="41"/>
-      <c r="F30" s="47" t="s">
+      <c r="E30" s="36"/>
+      <c r="F30" s="42" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="25" t="n">
+      <c r="A31" s="20" t="n">
         <f aca="false">A30+1</f>
         <v>3</v>
       </c>
-      <c r="B31" s="48" t="s">
+      <c r="B31" s="43" t="s">
         <v>41</v>
       </c>
       <c r="C31" s="0"/>
@@ -1612,36 +1588,36 @@
       <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="49" t="n">
+      <c r="A32" s="44" t="n">
         <f aca="false">A31+1</f>
         <v>4</v>
       </c>
-      <c r="B32" s="50" t="s">
+      <c r="B32" s="45" t="s">
         <v>42</v>
       </c>
-      <c r="C32" s="51" t="s">
+      <c r="C32" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="49"/>
-      <c r="F32" s="49"/>
+      <c r="D32" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="44"/>
     </row>
     <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="49" t="n">
+      <c r="A33" s="44" t="n">
         <f aca="false">A32+1</f>
         <v>5</v>
       </c>
-      <c r="B33" s="50" t="s">
+      <c r="B33" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="C33" s="51"/>
-      <c r="D33" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="49"/>
-      <c r="F33" s="49"/>
+      <c r="C33" s="46"/>
+      <c r="D33" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E33" s="44"/>
+      <c r="F33" s="44"/>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0"/>
@@ -1652,87 +1628,87 @@
       <c r="F34" s="0"/>
     </row>
     <row r="35" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="38"/>
-      <c r="B35" s="39" t="s">
+      <c r="A35" s="33"/>
+      <c r="B35" s="34" t="s">
         <v>45</v>
       </c>
-      <c r="C35" s="38"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="33"/>
     </row>
     <row r="36" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="41" t="n">
+      <c r="A36" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B36" s="42" t="s">
+      <c r="B36" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="C36" s="41" t="s">
+      <c r="C36" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D36" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E36" s="41"/>
-      <c r="F36" s="41"/>
+      <c r="D36" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="36"/>
+      <c r="F36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="41" t="n">
+      <c r="A37" s="36" t="n">
         <f aca="false">A36+1</f>
         <v>2</v>
       </c>
-      <c r="B37" s="47" t="s">
+      <c r="B37" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="41"/>
-      <c r="F37" s="41"/>
+      <c r="C37" s="36"/>
+      <c r="D37" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E37" s="36"/>
+      <c r="F37" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="41" t="n">
+      <c r="A38" s="36" t="n">
         <f aca="false">A37+1</f>
         <v>3</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C38" s="47" t="s">
+      <c r="C38" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="D38" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="41"/>
-      <c r="F38" s="41"/>
+      <c r="D38" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E38" s="36"/>
+      <c r="F38" s="36"/>
     </row>
     <row r="39" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="25" t="n">
+      <c r="A39" s="20" t="n">
         <f aca="false">A38+1</f>
         <v>4</v>
       </c>
-      <c r="B39" s="26" t="s">
+      <c r="B39" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="C39" s="52"/>
-      <c r="D39" s="53" t="n">
+      <c r="C39" s="47"/>
+      <c r="D39" s="48" t="n">
         <v>3</v>
       </c>
       <c r="E39" s="0"/>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="25" t="n">
+      <c r="A40" s="20" t="n">
         <f aca="false">A39+1</f>
         <v>5</v>
       </c>
-      <c r="B40" s="26" t="s">
+      <c r="B40" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="C40" s="54"/>
+      <c r="C40" s="49"/>
       <c r="D40" s="9" t="n">
         <v>2</v>
       </c>
@@ -1740,60 +1716,60 @@
       <c r="F40" s="0"/>
     </row>
     <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="49" t="n">
+      <c r="A41" s="44" t="n">
         <f aca="false">A40+1</f>
         <v>6</v>
       </c>
-      <c r="B41" s="50" t="s">
+      <c r="B41" s="45" t="s">
         <v>53</v>
       </c>
-      <c r="C41" s="49" t="s">
+      <c r="C41" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="D41" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E41" s="49"/>
-      <c r="F41" s="55" t="s">
+      <c r="D41" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E41" s="44"/>
+      <c r="F41" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="G41" s="34"/>
-    </row>
-    <row r="42" s="56" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="56" t="n">
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" s="51" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="51" t="n">
         <f aca="false">A41+1</f>
         <v>7</v>
       </c>
-      <c r="B42" s="56" t="s">
+      <c r="B42" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="C42" s="56" t="s">
+      <c r="C42" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="D42" s="56" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="57" t="s">
+      <c r="D42" s="51" t="n">
+        <v>2</v>
+      </c>
+      <c r="F42" s="52" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="58"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="49" t="n">
+      <c r="A43" s="44" t="n">
         <f aca="false">A42+1</f>
         <v>8</v>
       </c>
-      <c r="B43" s="50" t="s">
+      <c r="B43" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="C43" s="49" t="s">
+      <c r="C43" s="44" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="49"/>
-      <c r="F43" s="49"/>
+      <c r="D43" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="44"/>
+      <c r="F43" s="44"/>
     </row>
     <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="0"/>
@@ -1804,235 +1780,235 @@
       <c r="F44" s="0"/>
     </row>
     <row r="45" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="38"/>
-      <c r="B45" s="39" t="s">
+      <c r="A45" s="33"/>
+      <c r="B45" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="C45" s="38"/>
-      <c r="D45" s="38"/>
-      <c r="E45" s="38"/>
-      <c r="F45" s="38"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="33"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="33"/>
     </row>
     <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="41" t="n">
+      <c r="A46" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B46" s="42" t="s">
+      <c r="B46" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="C46" s="41"/>
-      <c r="D46" s="41" t="n">
+      <c r="C46" s="36"/>
+      <c r="D46" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="41"/>
-      <c r="F46" s="41"/>
+      <c r="E46" s="36"/>
+      <c r="F46" s="36"/>
     </row>
     <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" s="42" t="s">
+      <c r="A47" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="B47" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="C47" s="41"/>
-      <c r="D47" s="41" t="n">
+      <c r="C47" s="36"/>
+      <c r="D47" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="41"/>
-      <c r="F47" s="41"/>
+      <c r="E47" s="36"/>
+      <c r="F47" s="36"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="41" t="n">
+      <c r="A48" s="36" t="n">
         <f aca="false">1+A47</f>
         <v>3</v>
       </c>
-      <c r="B48" s="42" t="s">
+      <c r="B48" s="37" t="s">
         <v>64</v>
       </c>
-      <c r="C48" s="41" t="s">
+      <c r="C48" s="36" t="s">
         <v>65</v>
       </c>
-      <c r="D48" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="41"/>
-      <c r="F48" s="43" t="s">
+      <c r="D48" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E48" s="36"/>
+      <c r="F48" s="38" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="41" t="n">
+      <c r="A49" s="36" t="n">
         <f aca="false">1+A48</f>
         <v>4</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="C49" s="41"/>
-      <c r="D49" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E49" s="41"/>
-      <c r="F49" s="41"/>
+      <c r="C49" s="36"/>
+      <c r="D49" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E49" s="36"/>
+      <c r="F49" s="36"/>
     </row>
     <row r="50" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="49" t="n">
+      <c r="A50" s="44" t="n">
         <f aca="false">1+A49</f>
         <v>5</v>
       </c>
-      <c r="B50" s="50" t="s">
+      <c r="B50" s="45" t="s">
         <v>68</v>
       </c>
-      <c r="C50" s="49"/>
-      <c r="D50" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E50" s="49"/>
-      <c r="F50" s="49"/>
+      <c r="C50" s="44"/>
+      <c r="D50" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E50" s="44"/>
+      <c r="F50" s="44"/>
     </row>
     <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="41" t="n">
+      <c r="A51" s="36" t="n">
         <f aca="false">1+A50</f>
         <v>6</v>
       </c>
-      <c r="B51" s="42" t="s">
+      <c r="B51" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C51" s="41"/>
-      <c r="D51" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E51" s="41"/>
-      <c r="F51" s="41"/>
+      <c r="C51" s="36"/>
+      <c r="D51" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E51" s="36"/>
+      <c r="F51" s="36"/>
     </row>
     <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="41" t="n">
+      <c r="A52" s="36" t="n">
         <f aca="false">1+A51</f>
         <v>7</v>
       </c>
-      <c r="B52" s="42" t="s">
+      <c r="B52" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="C52" s="41" t="s">
+      <c r="C52" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D52" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" s="41"/>
-      <c r="F52" s="41"/>
+      <c r="D52" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E52" s="36"/>
+      <c r="F52" s="36"/>
     </row>
     <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="41" t="n">
+      <c r="A53" s="36" t="n">
         <f aca="false">1+A52</f>
         <v>8</v>
       </c>
-      <c r="B53" s="42" t="s">
+      <c r="B53" s="37" t="s">
         <v>72</v>
       </c>
-      <c r="C53" s="41" t="s">
+      <c r="C53" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" s="41"/>
-      <c r="F53" s="41"/>
+      <c r="D53" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E53" s="36"/>
+      <c r="F53" s="36"/>
     </row>
     <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="41" t="n">
+      <c r="A54" s="36" t="n">
         <f aca="false">1+A53</f>
         <v>9</v>
       </c>
-      <c r="B54" s="42" t="s">
+      <c r="B54" s="37" t="s">
         <v>73</v>
       </c>
-      <c r="C54" s="41"/>
-      <c r="D54" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="41"/>
-      <c r="F54" s="41"/>
+      <c r="C54" s="36"/>
+      <c r="D54" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E54" s="36"/>
+      <c r="F54" s="36"/>
     </row>
     <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="41" t="n">
+      <c r="A55" s="36" t="n">
         <f aca="false">1+A54</f>
         <v>10</v>
       </c>
-      <c r="B55" s="42" t="s">
+      <c r="B55" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C55" s="41"/>
-      <c r="D55" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="41"/>
-      <c r="F55" s="41"/>
+      <c r="C55" s="36"/>
+      <c r="D55" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="36"/>
+      <c r="F55" s="36"/>
     </row>
     <row r="56" customFormat="false" ht="30.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="41" t="n">
+      <c r="A56" s="36" t="n">
         <f aca="false">1+A55</f>
         <v>11</v>
       </c>
-      <c r="B56" s="42" t="s">
+      <c r="B56" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="C56" s="41" t="s">
+      <c r="C56" s="36" t="s">
         <v>76</v>
       </c>
-      <c r="D56" s="41" t="n">
+      <c r="D56" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="41"/>
-      <c r="F56" s="41"/>
+      <c r="E56" s="36"/>
+      <c r="F56" s="36"/>
     </row>
     <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="41" t="n">
+      <c r="A57" s="36" t="n">
         <f aca="false">1+A56</f>
         <v>12</v>
       </c>
-      <c r="B57" s="42" t="s">
+      <c r="B57" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C57" s="41"/>
-      <c r="D57" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E57" s="41"/>
-      <c r="F57" s="41" t="s">
+      <c r="C57" s="36"/>
+      <c r="D57" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="36"/>
+      <c r="F57" s="36" t="s">
         <v>78</v>
       </c>
-      <c r="G57" s="59"/>
+      <c r="G57" s="54"/>
     </row>
     <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="60" t="n">
+      <c r="A58" s="55" t="n">
         <f aca="false">1+A57</f>
         <v>13</v>
       </c>
-      <c r="B58" s="45" t="s">
+      <c r="B58" s="40" t="s">
         <v>79</v>
       </c>
-      <c r="C58" s="44" t="s">
+      <c r="C58" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D58" s="44" t="n">
+      <c r="D58" s="39" t="n">
         <v>0</v>
       </c>
       <c r="E58" s="0"/>
       <c r="F58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="60" t="n">
+      <c r="A59" s="55" t="n">
         <f aca="false">1+A58</f>
         <v>14</v>
       </c>
-      <c r="B59" s="45" t="s">
+      <c r="B59" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="C59" s="44" t="s">
+      <c r="C59" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="D59" s="44" t="n">
+      <c r="D59" s="39" t="n">
         <v>0</v>
       </c>
       <c r="E59" s="0"/>
@@ -2047,57 +2023,57 @@
       <c r="F60" s="0"/>
     </row>
     <row r="61" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="38"/>
-      <c r="B61" s="39" t="s">
+      <c r="A61" s="33"/>
+      <c r="B61" s="34" t="s">
         <v>81</v>
       </c>
-      <c r="C61" s="38"/>
-      <c r="D61" s="38"/>
-      <c r="E61" s="38"/>
-      <c r="F61" s="38"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="33"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="33"/>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="41" t="n">
+      <c r="A62" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="42" t="s">
+      <c r="B62" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C62" s="61" t="s">
+      <c r="C62" s="56" t="s">
         <v>83</v>
       </c>
-      <c r="D62" s="41" t="n">
+      <c r="D62" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="41" t="s">
+      <c r="E62" s="36" t="s">
         <v>84</v>
       </c>
-      <c r="F62" s="43"/>
+      <c r="F62" s="38"/>
     </row>
     <row r="63" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="41" t="n">
+      <c r="A63" s="36" t="n">
         <f aca="false">A62+1</f>
         <v>2</v>
       </c>
-      <c r="B63" s="42" t="s">
+      <c r="B63" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C63" s="41"/>
-      <c r="D63" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E63" s="41"/>
-      <c r="F63" s="41"/>
+      <c r="C63" s="36"/>
+      <c r="D63" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E63" s="36"/>
+      <c r="F63" s="36"/>
     </row>
     <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="25" t="n">
+      <c r="A64" s="20" t="n">
         <f aca="false">A63+1</f>
         <v>3</v>
       </c>
-      <c r="B64" s="26" t="s">
+      <c r="B64" s="21" t="s">
         <v>86</v>
       </c>
-      <c r="C64" s="62" t="s">
+      <c r="C64" s="57" t="s">
         <v>87</v>
       </c>
       <c r="D64" s="9" t="n">
@@ -2107,14 +2083,14 @@
       <c r="F64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="25" t="n">
+      <c r="A65" s="20" t="n">
         <f aca="false">A64+1</f>
         <v>4</v>
       </c>
-      <c r="B65" s="26" t="s">
+      <c r="B65" s="21" t="s">
         <v>88</v>
       </c>
-      <c r="C65" s="62"/>
+      <c r="C65" s="57"/>
       <c r="D65" s="9" t="n">
         <v>2</v>
       </c>
@@ -2122,14 +2098,14 @@
       <c r="F65" s="0"/>
     </row>
     <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="25" t="n">
+      <c r="A66" s="20" t="n">
         <f aca="false">A65+1</f>
         <v>5</v>
       </c>
-      <c r="B66" s="26" t="s">
+      <c r="B66" s="21" t="s">
         <v>89</v>
       </c>
-      <c r="C66" s="62" t="s">
+      <c r="C66" s="57" t="s">
         <v>90</v>
       </c>
       <c r="D66" s="9" t="n">
@@ -2139,26 +2115,26 @@
       <c r="F66" s="0"/>
     </row>
     <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="41" t="n">
+      <c r="A67" s="36" t="n">
         <f aca="false">A66+1</f>
         <v>6</v>
       </c>
-      <c r="B67" s="42" t="s">
+      <c r="B67" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="C67" s="41"/>
-      <c r="D67" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" s="41"/>
-      <c r="F67" s="41"/>
+      <c r="C67" s="36"/>
+      <c r="D67" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="36"/>
+      <c r="F67" s="36"/>
     </row>
     <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="25" t="n">
+      <c r="A68" s="20" t="n">
         <f aca="false">A67+1</f>
         <v>7</v>
       </c>
-      <c r="B68" s="26" t="s">
+      <c r="B68" s="21" t="s">
         <v>92</v>
       </c>
       <c r="C68" s="0"/>
@@ -2169,59 +2145,59 @@
       <c r="F68" s="0"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="49" t="n">
+      <c r="A69" s="44" t="n">
         <f aca="false">A68+1</f>
         <v>8</v>
       </c>
-      <c r="B69" s="50" t="s">
+      <c r="B69" s="45" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="49"/>
-      <c r="D69" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E69" s="49"/>
-      <c r="F69" s="49"/>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
     </row>
     <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="41" t="n">
+      <c r="A70" s="36" t="n">
         <f aca="false">A69+1</f>
         <v>9</v>
       </c>
-      <c r="B70" s="42" t="s">
+      <c r="B70" s="37" t="s">
         <v>94</v>
       </c>
-      <c r="C70" s="41"/>
-      <c r="D70" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E70" s="41"/>
-      <c r="F70" s="41"/>
+      <c r="C70" s="36"/>
+      <c r="D70" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E70" s="36"/>
+      <c r="F70" s="36"/>
     </row>
     <row r="71" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41" t="n">
+      <c r="A71" s="36" t="n">
         <f aca="false">A70+1</f>
         <v>10</v>
       </c>
-      <c r="B71" s="42" t="s">
+      <c r="B71" s="37" t="s">
         <v>95</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="41"/>
-      <c r="F71" s="41"/>
+      <c r="C71" s="58"/>
+      <c r="D71" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="36"/>
+      <c r="F71" s="36"/>
     </row>
     <row r="72" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="25" t="n">
+      <c r="A72" s="20" t="n">
         <f aca="false">A71+1</f>
         <v>11</v>
       </c>
-      <c r="B72" s="26" t="s">
+      <c r="B72" s="21" t="s">
         <v>96</v>
       </c>
-      <c r="C72" s="64" t="s">
+      <c r="C72" s="59" t="s">
         <v>97</v>
       </c>
       <c r="D72" s="9" t="n">
@@ -2231,29 +2207,29 @@
       <c r="F72" s="0"/>
     </row>
     <row r="73" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="49" t="n">
+      <c r="A73" s="44" t="n">
         <f aca="false">A72+1</f>
         <v>12</v>
       </c>
-      <c r="B73" s="50" t="s">
+      <c r="B73" s="45" t="s">
         <v>98</v>
       </c>
-      <c r="C73" s="49"/>
-      <c r="D73" s="49" t="n">
-        <v>2</v>
-      </c>
-      <c r="E73" s="49"/>
-      <c r="F73" s="49"/>
+      <c r="C73" s="44"/>
+      <c r="D73" s="44" t="n">
+        <v>2</v>
+      </c>
+      <c r="E73" s="44"/>
+      <c r="F73" s="44"/>
     </row>
     <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="25" t="n">
+      <c r="A74" s="20" t="n">
         <f aca="false">A73+1</f>
         <v>13</v>
       </c>
-      <c r="B74" s="26" t="s">
+      <c r="B74" s="21" t="s">
         <v>99</v>
       </c>
-      <c r="C74" s="62" t="s">
+      <c r="C74" s="57" t="s">
         <v>100</v>
       </c>
       <c r="D74" s="9" t="n">
@@ -2263,76 +2239,76 @@
       <c r="F74" s="0"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="41" t="n">
+      <c r="A75" s="36" t="n">
         <f aca="false">A74+1</f>
         <v>14</v>
       </c>
-      <c r="B75" s="42" t="s">
+      <c r="B75" s="37" t="s">
         <v>101</v>
       </c>
-      <c r="C75" s="41" t="s">
+      <c r="C75" s="36" t="s">
         <v>102</v>
       </c>
-      <c r="D75" s="41" t="n">
+      <c r="D75" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="E75" s="41"/>
-      <c r="F75" s="41"/>
-    </row>
-    <row r="76" s="67" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="49" t="n">
+      <c r="E75" s="36"/>
+      <c r="F75" s="36"/>
+    </row>
+    <row r="76" s="62" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="44" t="n">
         <f aca="false">A75+1</f>
         <v>15</v>
       </c>
-      <c r="B76" s="50" t="s">
+      <c r="B76" s="45" t="s">
         <v>103</v>
       </c>
-      <c r="C76" s="65" t="s">
+      <c r="C76" s="60" t="s">
         <v>104</v>
       </c>
-      <c r="D76" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E76" s="49"/>
-      <c r="F76" s="66" t="s">
+      <c r="D76" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E76" s="44"/>
+      <c r="F76" s="61" t="s">
         <v>105</v>
       </c>
-      <c r="G76" s="55"/>
+      <c r="G76" s="50"/>
     </row>
     <row r="77" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="41" t="n">
+      <c r="A77" s="36" t="n">
         <f aca="false">A76+1</f>
         <v>16</v>
       </c>
-      <c r="B77" s="42" t="s">
+      <c r="B77" s="37" t="s">
         <v>106</v>
       </c>
-      <c r="C77" s="41" t="s">
+      <c r="C77" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="D77" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E77" s="41"/>
-      <c r="F77" s="41" t="s">
+      <c r="D77" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E77" s="36"/>
+      <c r="F77" s="36" t="s">
         <v>107</v>
       </c>
-      <c r="G77" s="59"/>
+      <c r="G77" s="54"/>
     </row>
     <row r="78" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="49" t="n">
+      <c r="A78" s="44" t="n">
         <f aca="false">A77+1</f>
         <v>17</v>
       </c>
-      <c r="B78" s="50" t="s">
+      <c r="B78" s="45" t="s">
         <v>108</v>
       </c>
-      <c r="C78" s="49"/>
-      <c r="D78" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E78" s="49"/>
-      <c r="F78" s="49"/>
+      <c r="C78" s="44"/>
+      <c r="D78" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E78" s="44"/>
+      <c r="F78" s="44"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
@@ -2343,41 +2319,41 @@
       <c r="F79" s="0"/>
     </row>
     <row r="80" s="8" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="38"/>
-      <c r="B80" s="39" t="s">
+      <c r="A80" s="33"/>
+      <c r="B80" s="34" t="s">
         <v>109</v>
       </c>
-      <c r="C80" s="38"/>
-      <c r="D80" s="38"/>
-      <c r="E80" s="38"/>
-      <c r="F80" s="38"/>
+      <c r="C80" s="33"/>
+      <c r="D80" s="33"/>
+      <c r="E80" s="33"/>
+      <c r="F80" s="33"/>
     </row>
     <row r="81" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="49" t="n">
+      <c r="A81" s="44" t="n">
         <v>1</v>
       </c>
-      <c r="B81" s="50" t="s">
+      <c r="B81" s="45" t="s">
         <v>110</v>
       </c>
-      <c r="C81" s="49"/>
-      <c r="D81" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E81" s="49"/>
-      <c r="F81" s="49"/>
+      <c r="C81" s="44"/>
+      <c r="D81" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E81" s="44"/>
+      <c r="F81" s="44"/>
     </row>
     <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="44" t="n">
+      <c r="A82" s="39" t="n">
         <f aca="false">A81+1</f>
         <v>2</v>
       </c>
-      <c r="B82" s="45" t="s">
+      <c r="B82" s="40" t="s">
         <v>111</v>
       </c>
-      <c r="C82" s="44" t="s">
+      <c r="C82" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D82" s="44" t="n">
+      <c r="D82" s="39" t="n">
         <v>0</v>
       </c>
       <c r="E82" s="0"/>
@@ -2392,155 +2368,155 @@
       <c r="F83" s="0"/>
     </row>
     <row r="84" s="8" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="38"/>
-      <c r="B84" s="39" t="s">
+      <c r="A84" s="33"/>
+      <c r="B84" s="34" t="s">
         <v>112</v>
       </c>
-      <c r="C84" s="38"/>
-      <c r="D84" s="38"/>
-      <c r="E84" s="38"/>
-      <c r="F84" s="38"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
     </row>
     <row r="85" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="41" t="n">
+      <c r="A85" s="36" t="n">
         <v>1</v>
       </c>
-      <c r="B85" s="42" t="s">
+      <c r="B85" s="37" t="s">
         <v>113</v>
       </c>
-      <c r="C85" s="41"/>
-      <c r="D85" s="41" t="n">
-        <v>2</v>
-      </c>
-      <c r="E85" s="41"/>
-      <c r="F85" s="41" t="s">
+      <c r="C85" s="36"/>
+      <c r="D85" s="36" t="n">
+        <v>2</v>
+      </c>
+      <c r="E85" s="36"/>
+      <c r="F85" s="36" t="s">
         <v>114</v>
       </c>
-      <c r="G85" s="34"/>
+      <c r="G85" s="29"/>
     </row>
     <row r="86" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="49" t="n">
+      <c r="A86" s="44" t="n">
         <f aca="false">A85+1</f>
         <v>2</v>
       </c>
-      <c r="B86" s="50" t="s">
+      <c r="B86" s="45" t="s">
         <v>115</v>
       </c>
-      <c r="C86" s="49" t="s">
+      <c r="C86" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="D86" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E86" s="49"/>
-      <c r="F86" s="49"/>
+      <c r="D86" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E86" s="44"/>
+      <c r="F86" s="44"/>
     </row>
     <row r="87" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="49" t="n">
+      <c r="A87" s="44" t="n">
         <f aca="false">A86+1</f>
         <v>3</v>
       </c>
-      <c r="B87" s="50" t="s">
+      <c r="B87" s="45" t="s">
         <v>117</v>
       </c>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
+      <c r="C87" s="44"/>
+      <c r="D87" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E87" s="44"/>
+      <c r="F87" s="44"/>
     </row>
     <row r="88" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="49" t="n">
+      <c r="A88" s="44" t="n">
         <f aca="false">A87+1</f>
         <v>4</v>
       </c>
-      <c r="B88" s="50" t="s">
+      <c r="B88" s="45" t="s">
         <v>118</v>
       </c>
-      <c r="C88" s="65" t="s">
+      <c r="C88" s="60" t="s">
         <v>119</v>
       </c>
-      <c r="D88" s="49" t="n">
-        <v>3</v>
-      </c>
-      <c r="E88" s="49"/>
-      <c r="F88" s="49"/>
+      <c r="D88" s="44" t="n">
+        <v>3</v>
+      </c>
+      <c r="E88" s="44"/>
+      <c r="F88" s="44"/>
     </row>
     <row r="89" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="41" t="n">
+      <c r="A89" s="36" t="n">
         <f aca="false">A88+1</f>
         <v>5</v>
       </c>
-      <c r="B89" s="42" t="s">
+      <c r="B89" s="37" t="s">
         <v>120</v>
       </c>
-      <c r="C89" s="47" t="s">
+      <c r="C89" s="42" t="s">
         <v>121</v>
       </c>
-      <c r="D89" s="41" t="n">
-        <v>3</v>
-      </c>
-      <c r="E89" s="41"/>
-      <c r="F89" s="41"/>
+      <c r="D89" s="36" t="n">
+        <v>3</v>
+      </c>
+      <c r="E89" s="36"/>
+      <c r="F89" s="36"/>
     </row>
     <row r="90" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="44" t="n">
+      <c r="A90" s="39" t="n">
         <f aca="false">A89+1</f>
         <v>6</v>
       </c>
-      <c r="B90" s="45" t="s">
+      <c r="B90" s="40" t="s">
         <v>122</v>
       </c>
-      <c r="C90" s="44" t="s">
+      <c r="C90" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D90" s="44" t="n">
+      <c r="D90" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="44" t="n">
+      <c r="A91" s="39" t="n">
         <f aca="false">A90+1</f>
         <v>7</v>
       </c>
-      <c r="B91" s="45" t="s">
+      <c r="B91" s="40" t="s">
         <v>124</v>
       </c>
-      <c r="C91" s="44" t="s">
+      <c r="C91" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D91" s="44" t="n">
+      <c r="D91" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="44" t="n">
+      <c r="A92" s="39" t="n">
         <f aca="false">A91+1</f>
         <v>8</v>
       </c>
-      <c r="B92" s="45" t="s">
+      <c r="B92" s="40" t="s">
         <v>125</v>
       </c>
-      <c r="C92" s="44" t="s">
+      <c r="C92" s="39" t="s">
         <v>123</v>
       </c>
-      <c r="D92" s="44" t="n">
+      <c r="D92" s="39" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="44" t="n">
+      <c r="A93" s="39" t="n">
         <f aca="false">A92+1</f>
         <v>9</v>
       </c>
-      <c r="B93" s="45" t="s">
+      <c r="B93" s="40" t="s">
         <v>126</v>
       </c>
-      <c r="C93" s="44" t="s">
+      <c r="C93" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="D93" s="44" t="n">
+      <c r="D93" s="39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2571,19 +2547,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="68" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="46.3316326530612"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="40.7142857142857"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="52.5918367346939"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.75"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="63" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="47.0867346938776"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.3622448979592"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.4591836734694"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.85714285714286"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="38"/>
-      <c r="B1" s="39" t="s">
+      <c r="A1" s="33"/>
+      <c r="B1" s="34" t="s">
         <v>127</v>
       </c>
-      <c r="C1" s="39" t="s">
+      <c r="C1" s="34" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
@@ -2591,13 +2567,13 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="69" t="n">
+      <c r="A2" s="64" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="B2" s="21" t="s">
         <v>129</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="21" t="s">
         <v>130</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -2605,82 +2581,82 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="69" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="26" t="s">
+      <c r="A3" s="64" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="21" t="s">
         <v>132</v>
       </c>
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="21" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="69" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="26" t="s">
+      <c r="A4" s="64" t="n">
+        <v>3</v>
+      </c>
+      <c r="B4" s="21" t="s">
         <v>134</v>
       </c>
       <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="69" t="n">
+      <c r="A5" s="64" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="26" t="s">
+      <c r="B5" s="21" t="s">
         <v>135</v>
       </c>
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="70" t="s">
+      <c r="D5" s="65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="69" t="n">
+      <c r="A6" s="64" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="26" t="s">
+      <c r="B6" s="21" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="69" t="n">
+      <c r="A7" s="64" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="21" t="s">
         <v>139</v>
       </c>
-      <c r="D7" s="70" t="s">
+      <c r="D7" s="65" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="69" t="n">
+      <c r="A8" s="64" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="26" t="s">
+      <c r="B8" s="21" t="s">
         <v>140</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="65" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="69" t="n">
+      <c r="A9" s="64" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="71" t="s">
+      <c r="B9" s="66" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="72" t="s">
+      <c r="B10" s="67" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="73" t="s">
+      <c r="D10" s="68" t="s">
         <v>144</v>
       </c>
     </row>
@@ -2688,7 +2664,7 @@
       <c r="B11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="73" t="s">
+      <c r="B12" s="68" t="s">
         <v>145</v>
       </c>
       <c r="E12" s="0" t="s">
@@ -2696,7 +2672,7 @@
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="73" t="s">
+      <c r="B13" s="68" t="s">
         <v>147</v>
       </c>
       <c r="E13" s="0" t="s">
@@ -2710,23 +2686,23 @@
       <c r="B14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="73" t="s">
+      <c r="B15" s="68" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="74" t="s">
+      <c r="B16" s="69" t="s">
         <v>151</v>
       </c>
-      <c r="E16" s="75" t="s">
+      <c r="E16" s="70" t="s">
         <v>152</v>
       </c>
-      <c r="F16" s="75" t="s">
+      <c r="F16" s="70" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="21" t="s">
         <v>154</v>
       </c>
     </row>
@@ -2821,12 +2797,12 @@
       <c r="B47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="72" t="s">
+      <c r="B48" s="67" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="26" t="s">
+      <c r="B49" s="21" t="s">
         <v>154</v>
       </c>
     </row>

--- a/Doc/250417_NextSteps_TestsOutcome.xlsx
+++ b/Doc/250417_NextSteps_TestsOutcome.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="163">
   <si>
     <t>Item</t>
   </si>
@@ -64,12 +64,21 @@
     <t>Corriger irradiation par orientation (N-S-E-O) (à au moins 2 endroits) ET surface par orientation </t>
   </si>
   <si>
+    <t>Me semble essentiel…</t>
+  </si>
+  <si>
     <t>Check de la variante initiale; avertir utilisateur si ne respecte pas contraintes et demander si veut tout de même procéder </t>
   </si>
   <si>
+    <t>Serait vraiment bien pour sauver du temps dans le cadre des workshops (pour ne pas avoir à essayer de trouver pourquoi la variante initiale n'est pas bonne et devoir recommencer…)</t>
+  </si>
+  <si>
     <t>Bouton pour sauvegarder image de la vue en Rhino </t>
   </si>
   <si>
+    <t>Tu peux oublier ça, vraiment pas prioritaire…</t>
+  </si>
+  <si>
     <t>Corriger division par surface de plancher dans résultats (Electricity production) par bâtiments affichés dans tableau (Show charts)</t>
   </si>
   <si>
@@ -89,6 +98,18 @@
   </si>
   <si>
     <t>Avec la boite de dialogue on peut choisir ou créer un nouveau dossier !</t>
+  </si>
+  <si>
+    <t>Enlever la limite max pour les valeurs de dimensions LENGTH et WIDTH de toutes les typologies (ou mettre à genre 200 m)</t>
+  </si>
+  <si>
+    <t>Mettre à jour le pdf qui s'ouvre depuis le Help </t>
+  </si>
+  <si>
+    <t>Je te l'enverrai bientôt</t>
+  </si>
+  <si>
+    <t>Corriger l'extension du fichier de résultats (cvs -&gt; csv)</t>
   </si>
   <si>
     <t>Si encore possible</t>
@@ -504,7 +525,7 @@
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="DD/MM/YY"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -567,7 +588,29 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
       <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFC00000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -601,13 +644,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
       <b val="true"/>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
@@ -616,7 +652,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -639,6 +675,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF66FFFF"/>
         <bgColor rgb="FF33CCCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor rgb="FFFF9900"/>
       </patternFill>
     </fill>
     <fill>
@@ -732,7 +774,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="80">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -813,6 +855,22 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -821,15 +879,11 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -845,7 +899,31 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -853,15 +931,15 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,55 +959,55 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -941,7 +1019,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -953,15 +1031,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -977,7 +1055,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="17" fillId="2" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -993,27 +1071,27 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1037,7 +1115,7 @@
       <rgbColor rgb="FFFFFF00"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FF00FFFF"/>
-      <rgbColor rgb="FF800000"/>
+      <rgbColor rgb="FFC00000"/>
       <rgbColor rgb="FF006100"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FF9C6500"/>
@@ -1072,7 +1150,7 @@
       <rgbColor rgb="FF3366FF"/>
       <rgbColor rgb="FF33CCCC"/>
       <rgbColor rgb="FF99CC00"/>
-      <rgbColor rgb="FFFFCC00"/>
+      <rgbColor rgb="FFFFC000"/>
       <rgbColor rgb="FFFF9900"/>
       <rgbColor rgb="FFED7D31"/>
       <rgbColor rgb="FF666699"/>
@@ -1095,15 +1173,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>112680</xdr:colOff>
+      <xdr:colOff>166680</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>42840</xdr:rowOff>
+      <xdr:rowOff>24840</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>352080</xdr:colOff>
+      <xdr:colOff>405360</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>116640</xdr:rowOff>
+      <xdr:rowOff>97920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1116,8 +1194,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3869280" y="5312520"/>
-          <a:ext cx="6929640" cy="5026680"/>
+          <a:off x="4037400" y="5294520"/>
+          <a:ext cx="7142400" cy="5025960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1132,15 +1210,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2862360</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>4680</xdr:rowOff>
+      <xdr:colOff>2916360</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>177480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>954360</xdr:colOff>
+      <xdr:colOff>1007640</xdr:colOff>
       <xdr:row>71</xdr:row>
-      <xdr:rowOff>103680</xdr:rowOff>
+      <xdr:rowOff>84960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1153,8 +1231,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3296520" y="10418040"/>
-          <a:ext cx="4332960" cy="6004440"/>
+          <a:off x="3350520" y="10400040"/>
+          <a:ext cx="4537800" cy="6003720"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1174,23 +1252,23 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G93"/>
+  <dimension ref="A1:G96"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A30" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="bottomLeft" activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="5.83163265306122"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="83.265306122449"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="38.015306122449"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="13.9336734693878"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="38.3367346938776"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="86.0714285714286"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="39.3112244897959"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="36.9336734693878"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="14.1479591836735"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="39.6326530612245"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="40.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1243,7 +1321,7 @@
       <c r="E4" s="13"/>
       <c r="F4" s="16"/>
     </row>
-    <row r="5" s="17" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A5" s="13" t="n">
         <f aca="false">A4+1</f>
         <v>2</v>
@@ -1273,1256 +1351,1292 @@
       <c r="E6" s="13"/>
       <c r="F6" s="16"/>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" s="23" customFormat="true" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="20" t="n">
         <v>4</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="0"/>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
+      <c r="C7" s="22" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="20" t="n">
+      <c r="A8" s="24" t="n">
         <v>5</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="0"/>
+      <c r="B8" s="25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="26" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="0"/>
       <c r="E8" s="0"/>
       <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="20" t="n">
+      <c r="A9" s="24" t="n">
         <v>6</v>
       </c>
-      <c r="B9" s="21" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" s="0"/>
+      <c r="B9" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="27" t="s">
+        <v>17</v>
+      </c>
       <c r="D9" s="0"/>
       <c r="E9" s="0"/>
       <c r="F9" s="0"/>
     </row>
-    <row r="10" s="24" customFormat="true" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="22" t="n">
+    <row r="10" s="23" customFormat="true" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="20" t="n">
         <v>7</v>
       </c>
-      <c r="B10" s="23" t="s">
-        <v>15</v>
-      </c>
-      <c r="E10" s="25" t="n">
+      <c r="B10" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="28" t="n">
         <v>42862</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="22" t="n">
+      <c r="A11" s="20" t="n">
         <v>8</v>
       </c>
-      <c r="B11" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11" s="24" t="n">
+      <c r="B11" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="23" t="n">
         <v>0.1</v>
       </c>
       <c r="D11" s="0"/>
-      <c r="E11" s="25" t="n">
+      <c r="E11" s="28" t="n">
         <v>42862</v>
       </c>
       <c r="F11" s="0"/>
     </row>
     <row r="12" s="17" customFormat="true" ht="25.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="26" t="n">
+      <c r="A12" s="29" t="n">
         <v>9</v>
       </c>
-      <c r="B12" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="27"/>
-    </row>
-    <row r="13" s="24" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="26" t="n">
+      <c r="B12" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="E12" s="30"/>
+    </row>
+    <row r="13" s="23" customFormat="true" ht="19.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="29" t="n">
         <v>10</v>
       </c>
-      <c r="B13" s="23" t="s">
-        <v>18</v>
+      <c r="B13" s="21" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="17" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D13" s="17"/>
-      <c r="E13" s="25"/>
+      <c r="E13" s="28"/>
     </row>
     <row r="14" s="17" customFormat="true" ht="29.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="26" t="n">
+      <c r="A14" s="29" t="n">
         <v>11</v>
       </c>
-      <c r="B14" s="23" t="s">
-        <v>20</v>
+      <c r="B14" s="21" t="s">
+        <v>23</v>
       </c>
       <c r="C14" s="17" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="15" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="C15" s="10"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-    </row>
-    <row r="16" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="n">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" s="33" customFormat="true" ht="27.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="31" t="n">
+        <v>12</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" s="22"/>
+    </row>
+    <row r="16" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="34" t="n">
+        <v>13</v>
+      </c>
+      <c r="B16" s="35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="0"/>
+      <c r="E16" s="0"/>
+      <c r="F16" s="26"/>
+    </row>
+    <row r="17" s="23" customFormat="true" ht="23.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="31" t="n">
+        <v>14</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="C17" s="36"/>
+      <c r="F17" s="22"/>
+    </row>
+    <row r="18" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="10"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="10"/>
+      <c r="F18" s="10"/>
+    </row>
+    <row r="19" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="24" t="n">
         <v>1</v>
       </c>
-      <c r="B16" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="0"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="29"/>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="20" t="n">
-        <f aca="false">1+A46</f>
-        <v>2</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="0"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="29"/>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="20" t="n">
-        <v>3</v>
-      </c>
-      <c r="B18" s="21" t="s">
-        <v>25</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="D18" s="9"/>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-    </row>
-    <row r="19" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A19" s="0"/>
-      <c r="B19" s="0"/>
+      <c r="B19" s="37" t="s">
+        <v>30</v>
+      </c>
       <c r="C19" s="0"/>
       <c r="D19" s="9"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
-    </row>
-    <row r="20" s="32" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="30"/>
-      <c r="B20" s="31"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-    </row>
-    <row r="21" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="0"/>
-      <c r="B21" s="0"/>
-      <c r="C21" s="0"/>
-      <c r="D21" s="0"/>
+      <c r="G19" s="38"/>
+    </row>
+    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="24" t="n">
+        <f aca="false">1+A49</f>
+        <v>2</v>
+      </c>
+      <c r="B20" s="37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C20" s="0"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="0"/>
+      <c r="F20" s="0"/>
+      <c r="G20" s="38"/>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="24" t="n">
+        <v>3</v>
+      </c>
+      <c r="B21" s="25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
     </row>
-    <row r="22" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="33"/>
-      <c r="B22" s="34" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="33"/>
-      <c r="D22" s="35"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="33"/>
-    </row>
-    <row r="23" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="36" t="n">
+    <row r="22" customFormat="false" ht="11.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0"/>
+      <c r="B22" s="0"/>
+      <c r="C22" s="0"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="0"/>
+      <c r="F22" s="0"/>
+    </row>
+    <row r="23" s="41" customFormat="true" ht="9.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="39"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="39"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="39"/>
+    </row>
+    <row r="24" customFormat="false" ht="12" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="0"/>
+      <c r="B24" s="0"/>
+      <c r="C24" s="0"/>
+      <c r="D24" s="0"/>
+      <c r="E24" s="0"/>
+      <c r="F24" s="0"/>
+    </row>
+    <row r="25" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="42"/>
+      <c r="D25" s="44"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+    </row>
+    <row r="26" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="B23" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="C23" s="38" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E23" s="36"/>
-      <c r="F23" s="36"/>
-    </row>
-    <row r="24" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="36" t="n">
-        <f aca="false">A23+1</f>
-        <v>2</v>
-      </c>
-      <c r="B24" s="37" t="s">
-        <v>30</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24" s="36" t="n">
+      <c r="B26" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="47" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E26" s="45"/>
+      <c r="F26" s="45"/>
+    </row>
+    <row r="27" customFormat="false" ht="35.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="45" t="n">
+        <f aca="false">A26+1</f>
+        <v>2</v>
+      </c>
+      <c r="B27" s="46" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="45" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-    </row>
-    <row r="25" s="41" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="39" t="n">
-        <f aca="false">1+A24</f>
+      <c r="E27" s="45"/>
+      <c r="F27" s="45"/>
+    </row>
+    <row r="28" s="50" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="48" t="n">
+        <f aca="false">1+A27</f>
         <v>3</v>
       </c>
-      <c r="B25" s="40" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D25" s="39" t="n">
+      <c r="B28" s="49" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D28" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="39"/>
-      <c r="F25" s="39"/>
-    </row>
-    <row r="26" s="41" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="39" t="n">
+      <c r="E28" s="48"/>
+      <c r="F28" s="48"/>
+    </row>
+    <row r="29" s="50" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="48" t="n">
         <f aca="false">A6+1</f>
         <v>4</v>
       </c>
-      <c r="B26" s="40" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D26" s="39" t="n">
+      <c r="B29" s="49" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-    </row>
-    <row r="27" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="0"/>
-      <c r="B27" s="0"/>
-      <c r="C27" s="0"/>
-      <c r="D27" s="0"/>
-      <c r="E27" s="0"/>
-      <c r="F27" s="0"/>
-    </row>
-    <row r="28" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="33"/>
-      <c r="B28" s="34" t="s">
-        <v>36</v>
-      </c>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="33"/>
-    </row>
-    <row r="29" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="36" t="n">
+      <c r="E29" s="48"/>
+      <c r="F29" s="48"/>
+    </row>
+    <row r="30" customFormat="false" ht="14.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="0"/>
+      <c r="B30" s="0"/>
+      <c r="C30" s="0"/>
+      <c r="D30" s="0"/>
+      <c r="E30" s="0"/>
+      <c r="F30" s="0"/>
+    </row>
+    <row r="31" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="42"/>
+      <c r="B31" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" s="42"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="42"/>
+      <c r="F31" s="42"/>
+    </row>
+    <row r="32" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="B29" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36" t="n">
+      <c r="B32" s="46" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="45"/>
+      <c r="D32" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E29" s="36"/>
-      <c r="F29" s="42" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="36" t="n">
-        <f aca="false">A29+1</f>
-        <v>2</v>
-      </c>
-      <c r="B30" s="37" t="s">
-        <v>39</v>
-      </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36" t="n">
+      <c r="E32" s="45"/>
+      <c r="F32" s="51" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="39.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="45" t="n">
+        <f aca="false">A32+1</f>
+        <v>2</v>
+      </c>
+      <c r="B33" s="46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C33" s="45"/>
+      <c r="D33" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E30" s="36"/>
-      <c r="F30" s="42" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="20" t="n">
-        <f aca="false">A30+1</f>
+      <c r="E33" s="45"/>
+      <c r="F33" s="51" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="24" t="n">
+        <f aca="false">A33+1</f>
         <v>3</v>
       </c>
-      <c r="B31" s="43" t="s">
-        <v>41</v>
-      </c>
-      <c r="C31" s="0"/>
-      <c r="D31" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E31" s="0"/>
-      <c r="F31" s="0"/>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A32" s="44" t="n">
-        <f aca="false">A31+1</f>
-        <v>4</v>
-      </c>
-      <c r="B32" s="45" t="s">
-        <v>42</v>
-      </c>
-      <c r="C32" s="46" t="s">
-        <v>43</v>
-      </c>
-      <c r="D32" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="E32" s="44"/>
-      <c r="F32" s="44"/>
-    </row>
-    <row r="33" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="44" t="n">
-        <f aca="false">A32+1</f>
-        <v>5</v>
-      </c>
-      <c r="B33" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="C33" s="46"/>
-      <c r="D33" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="E33" s="44"/>
-      <c r="F33" s="44"/>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="0"/>
-      <c r="B34" s="0"/>
+      <c r="B34" s="52" t="s">
+        <v>48</v>
+      </c>
       <c r="C34" s="0"/>
-      <c r="D34" s="0"/>
+      <c r="D34" s="9" t="n">
+        <v>2</v>
+      </c>
       <c r="E34" s="0"/>
       <c r="F34" s="0"/>
     </row>
-    <row r="35" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="33"/>
-      <c r="B35" s="34" t="s">
-        <v>45</v>
-      </c>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="33"/>
-    </row>
-    <row r="36" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="36" t="n">
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="53" t="n">
+        <f aca="false">A34+1</f>
+        <v>4</v>
+      </c>
+      <c r="B35" s="54" t="s">
+        <v>49</v>
+      </c>
+      <c r="C35" s="55" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E35" s="53"/>
+      <c r="F35" s="53"/>
+    </row>
+    <row r="36" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="53" t="n">
+        <f aca="false">A35+1</f>
+        <v>5</v>
+      </c>
+      <c r="B36" s="54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="55"/>
+      <c r="D36" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E36" s="53"/>
+      <c r="F36" s="53"/>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="0"/>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
+      <c r="D37" s="0"/>
+      <c r="E37" s="0"/>
+      <c r="F37" s="0"/>
+    </row>
+    <row r="38" s="8" customFormat="true" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="42"/>
+      <c r="B38" s="43" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="42"/>
+      <c r="D38" s="42"/>
+      <c r="E38" s="42"/>
+      <c r="F38" s="42"/>
+    </row>
+    <row r="39" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="B36" s="37" t="s">
-        <v>46</v>
-      </c>
-      <c r="C36" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D36" s="36" t="n">
+      <c r="B39" s="46" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E36" s="36"/>
-      <c r="F36" s="36"/>
-    </row>
-    <row r="37" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="36" t="n">
-        <f aca="false">A36+1</f>
-        <v>2</v>
-      </c>
-      <c r="B37" s="42" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" s="36"/>
-      <c r="D37" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E37" s="36"/>
-      <c r="F37" s="36"/>
-    </row>
-    <row r="38" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="36" t="n">
-        <f aca="false">A37+1</f>
+      <c r="E39" s="45"/>
+      <c r="F39" s="45"/>
+    </row>
+    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="45" t="n">
+        <f aca="false">A39+1</f>
+        <v>2</v>
+      </c>
+      <c r="B40" s="51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C40" s="45"/>
+      <c r="D40" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E40" s="45"/>
+      <c r="F40" s="45"/>
+    </row>
+    <row r="41" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A41" s="45" t="n">
+        <f aca="false">A40+1</f>
         <v>3</v>
       </c>
-      <c r="B38" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C38" s="42" t="s">
-        <v>50</v>
-      </c>
-      <c r="D38" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E38" s="36"/>
-      <c r="F38" s="36"/>
-    </row>
-    <row r="39" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="20" t="n">
-        <f aca="false">A38+1</f>
+      <c r="B41" s="46" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="51" t="s">
+        <v>57</v>
+      </c>
+      <c r="D41" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E41" s="45"/>
+      <c r="F41" s="45"/>
+    </row>
+    <row r="42" customFormat="false" ht="29.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A42" s="24" t="n">
+        <f aca="false">A41+1</f>
         <v>4</v>
       </c>
-      <c r="B39" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="C39" s="47"/>
-      <c r="D39" s="48" t="n">
+      <c r="B42" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C42" s="56"/>
+      <c r="D42" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="E39" s="0"/>
-      <c r="F39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="20" t="n">
-        <f aca="false">A39+1</f>
+      <c r="E42" s="0"/>
+      <c r="F42" s="0"/>
+    </row>
+    <row r="43" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="24" t="n">
+        <f aca="false">A42+1</f>
         <v>5</v>
       </c>
-      <c r="B40" s="21" t="s">
-        <v>52</v>
-      </c>
-      <c r="C40" s="49"/>
-      <c r="D40" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E40" s="0"/>
-      <c r="F40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A41" s="44" t="n">
-        <f aca="false">A40+1</f>
+      <c r="B43" s="25" t="s">
+        <v>59</v>
+      </c>
+      <c r="C43" s="58"/>
+      <c r="D43" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E43" s="0"/>
+      <c r="F43" s="0"/>
+    </row>
+    <row r="44" customFormat="false" ht="28.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A44" s="53" t="n">
+        <f aca="false">A43+1</f>
         <v>6</v>
       </c>
-      <c r="B41" s="45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C41" s="44" t="s">
-        <v>54</v>
-      </c>
-      <c r="D41" s="44" t="n">
+      <c r="B44" s="54" t="s">
+        <v>60</v>
+      </c>
+      <c r="C44" s="53" t="s">
+        <v>61</v>
+      </c>
+      <c r="D44" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E41" s="44"/>
-      <c r="F41" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="G41" s="29"/>
-    </row>
-    <row r="42" s="51" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A42" s="51" t="n">
-        <f aca="false">A41+1</f>
+      <c r="E44" s="53"/>
+      <c r="F44" s="59" t="s">
+        <v>62</v>
+      </c>
+      <c r="G44" s="38"/>
+    </row>
+    <row r="45" s="60" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A45" s="60" t="n">
+        <f aca="false">A44+1</f>
         <v>7</v>
       </c>
-      <c r="B42" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="D42" s="51" t="n">
-        <v>2</v>
-      </c>
-      <c r="F42" s="52" t="s">
-        <v>58</v>
-      </c>
-      <c r="G42" s="53"/>
-    </row>
-    <row r="43" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44" t="n">
-        <f aca="false">A42+1</f>
+      <c r="B45" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="C45" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D45" s="60" t="n">
+        <v>2</v>
+      </c>
+      <c r="F45" s="61" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" s="62"/>
+    </row>
+    <row r="46" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="53" t="n">
+        <f aca="false">A45+1</f>
         <v>8</v>
       </c>
-      <c r="B43" s="45" t="s">
-        <v>59</v>
-      </c>
-      <c r="C43" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D43" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E43" s="44"/>
-      <c r="F43" s="44"/>
-    </row>
-    <row r="44" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="0"/>
-      <c r="B44" s="0"/>
-      <c r="C44" s="0"/>
-      <c r="D44" s="0"/>
-      <c r="E44" s="0"/>
-      <c r="F44" s="0"/>
-    </row>
-    <row r="45" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="33"/>
-      <c r="B45" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="C45" s="33"/>
-      <c r="D45" s="33"/>
-      <c r="E45" s="33"/>
-      <c r="F45" s="33"/>
-    </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="36" t="n">
+      <c r="B46" s="54" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" s="53" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E46" s="53"/>
+      <c r="F46" s="53"/>
+    </row>
+    <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="0"/>
+      <c r="B47" s="0"/>
+      <c r="C47" s="0"/>
+      <c r="D47" s="0"/>
+      <c r="E47" s="0"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48" s="8" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="42"/>
+      <c r="B48" s="43" t="s">
+        <v>68</v>
+      </c>
+      <c r="C48" s="42"/>
+      <c r="D48" s="42"/>
+      <c r="E48" s="42"/>
+      <c r="F48" s="42"/>
+    </row>
+    <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="B46" s="37" t="s">
-        <v>62</v>
-      </c>
-      <c r="C46" s="36"/>
-      <c r="D46" s="36" t="n">
+      <c r="B49" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="C49" s="45"/>
+      <c r="D49" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E46" s="36"/>
-      <c r="F46" s="36"/>
-    </row>
-    <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="B47" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="C47" s="36"/>
-      <c r="D47" s="36" t="n">
+      <c r="E49" s="45"/>
+      <c r="F49" s="45"/>
+    </row>
+    <row r="50" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="B50" s="46" t="s">
+        <v>70</v>
+      </c>
+      <c r="C50" s="45"/>
+      <c r="D50" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E47" s="36"/>
-      <c r="F47" s="36"/>
-    </row>
-    <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="36" t="n">
-        <f aca="false">1+A47</f>
+      <c r="E50" s="45"/>
+      <c r="F50" s="45"/>
+    </row>
+    <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="45" t="n">
+        <f aca="false">1+A50</f>
         <v>3</v>
       </c>
-      <c r="B48" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="C48" s="36" t="s">
-        <v>65</v>
-      </c>
-      <c r="D48" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E48" s="36"/>
-      <c r="F48" s="38" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A49" s="36" t="n">
-        <f aca="false">1+A48</f>
+      <c r="B51" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="C51" s="45" t="s">
+        <v>72</v>
+      </c>
+      <c r="D51" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E51" s="45"/>
+      <c r="F51" s="47" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A52" s="45" t="n">
+        <f aca="false">1+A51</f>
         <v>4</v>
       </c>
-      <c r="B49" s="37" t="s">
-        <v>67</v>
-      </c>
-      <c r="C49" s="36"/>
-      <c r="D49" s="36" t="n">
+      <c r="B52" s="46" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="45"/>
+      <c r="D52" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E49" s="36"/>
-      <c r="F49" s="36"/>
-    </row>
-    <row r="50" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A50" s="44" t="n">
-        <f aca="false">1+A49</f>
+      <c r="E52" s="45"/>
+      <c r="F52" s="45"/>
+    </row>
+    <row r="53" customFormat="false" ht="33" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A53" s="53" t="n">
+        <f aca="false">1+A52</f>
         <v>5</v>
       </c>
-      <c r="B50" s="45" t="s">
-        <v>68</v>
-      </c>
-      <c r="C50" s="44"/>
-      <c r="D50" s="44" t="n">
+      <c r="B53" s="54" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="53"/>
+      <c r="D53" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E50" s="44"/>
-      <c r="F50" s="44"/>
-    </row>
-    <row r="51" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A51" s="36" t="n">
-        <f aca="false">1+A50</f>
+      <c r="E53" s="53"/>
+      <c r="F53" s="53"/>
+    </row>
+    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A54" s="45" t="n">
+        <f aca="false">1+A53</f>
         <v>6</v>
       </c>
-      <c r="B51" s="37" t="s">
-        <v>69</v>
-      </c>
-      <c r="C51" s="36"/>
-      <c r="D51" s="36" t="n">
+      <c r="B54" s="46" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="45"/>
+      <c r="D54" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E51" s="36"/>
-      <c r="F51" s="36"/>
-    </row>
-    <row r="52" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A52" s="36" t="n">
-        <f aca="false">1+A51</f>
+      <c r="E54" s="45"/>
+      <c r="F54" s="45"/>
+    </row>
+    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A55" s="45" t="n">
+        <f aca="false">1+A54</f>
         <v>7</v>
       </c>
-      <c r="B52" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="C52" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D52" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E52" s="36"/>
-      <c r="F52" s="36"/>
-    </row>
-    <row r="53" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A53" s="36" t="n">
-        <f aca="false">1+A52</f>
+      <c r="B55" s="46" t="s">
+        <v>77</v>
+      </c>
+      <c r="C55" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D55" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E55" s="45"/>
+      <c r="F55" s="45"/>
+    </row>
+    <row r="56" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A56" s="45" t="n">
+        <f aca="false">1+A55</f>
         <v>8</v>
       </c>
-      <c r="B53" s="37" t="s">
-        <v>72</v>
-      </c>
-      <c r="C53" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="D53" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E53" s="36"/>
-      <c r="F53" s="36"/>
-    </row>
-    <row r="54" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="36" t="n">
-        <f aca="false">1+A53</f>
+      <c r="B56" s="46" t="s">
+        <v>79</v>
+      </c>
+      <c r="C56" s="45" t="s">
+        <v>78</v>
+      </c>
+      <c r="D56" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="45"/>
+      <c r="F56" s="45"/>
+    </row>
+    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A57" s="45" t="n">
+        <f aca="false">1+A56</f>
         <v>9</v>
       </c>
-      <c r="B54" s="37" t="s">
-        <v>73</v>
-      </c>
-      <c r="C54" s="36"/>
-      <c r="D54" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E54" s="36"/>
-      <c r="F54" s="36"/>
-    </row>
-    <row r="55" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A55" s="36" t="n">
-        <f aca="false">1+A54</f>
+      <c r="B57" s="46" t="s">
+        <v>80</v>
+      </c>
+      <c r="C57" s="45"/>
+      <c r="D57" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E57" s="45"/>
+      <c r="F57" s="45"/>
+    </row>
+    <row r="58" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A58" s="45" t="n">
+        <f aca="false">1+A57</f>
         <v>10</v>
       </c>
-      <c r="B55" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="C55" s="36"/>
-      <c r="D55" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E55" s="36"/>
-      <c r="F55" s="36"/>
-    </row>
-    <row r="56" customFormat="false" ht="30.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36" t="n">
-        <f aca="false">1+A55</f>
+      <c r="B58" s="46" t="s">
+        <v>81</v>
+      </c>
+      <c r="C58" s="45"/>
+      <c r="D58" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E58" s="45"/>
+      <c r="F58" s="45"/>
+    </row>
+    <row r="59" customFormat="false" ht="30.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A59" s="45" t="n">
+        <f aca="false">1+A58</f>
         <v>11</v>
       </c>
-      <c r="B56" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="C56" s="36" t="s">
-        <v>76</v>
-      </c>
-      <c r="D56" s="36" t="n">
+      <c r="B59" s="46" t="s">
+        <v>82</v>
+      </c>
+      <c r="C59" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="D59" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E56" s="36"/>
-      <c r="F56" s="36"/>
-    </row>
-    <row r="57" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A57" s="36" t="n">
-        <f aca="false">1+A56</f>
+      <c r="E59" s="45"/>
+      <c r="F59" s="45"/>
+    </row>
+    <row r="60" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="45" t="n">
+        <f aca="false">1+A59</f>
         <v>12</v>
       </c>
-      <c r="B57" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="C57" s="36"/>
-      <c r="D57" s="36" t="n">
+      <c r="B60" s="46" t="s">
+        <v>84</v>
+      </c>
+      <c r="C60" s="45"/>
+      <c r="D60" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E57" s="36"/>
-      <c r="F57" s="36" t="s">
-        <v>78</v>
-      </c>
-      <c r="G57" s="54"/>
-    </row>
-    <row r="58" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="55" t="n">
-        <f aca="false">1+A57</f>
+      <c r="E60" s="45"/>
+      <c r="F60" s="45" t="s">
+        <v>85</v>
+      </c>
+      <c r="G60" s="63"/>
+    </row>
+    <row r="61" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="64" t="n">
+        <f aca="false">1+A60</f>
         <v>13</v>
       </c>
-      <c r="B58" s="40" t="s">
-        <v>79</v>
-      </c>
-      <c r="C58" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D58" s="39" t="n">
+      <c r="B61" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C61" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E58" s="0"/>
-      <c r="F58" s="0"/>
-    </row>
-    <row r="59" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="55" t="n">
-        <f aca="false">1+A58</f>
+      <c r="E61" s="0"/>
+      <c r="F61" s="0"/>
+    </row>
+    <row r="62" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="64" t="n">
+        <f aca="false">1+A61</f>
         <v>14</v>
       </c>
-      <c r="B59" s="40" t="s">
-        <v>80</v>
-      </c>
-      <c r="C59" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="D59" s="39" t="n">
+      <c r="B62" s="49" t="s">
+        <v>87</v>
+      </c>
+      <c r="C62" s="48" t="s">
+        <v>40</v>
+      </c>
+      <c r="D62" s="48" t="n">
         <v>0</v>
       </c>
-      <c r="E59" s="0"/>
-      <c r="F59" s="0"/>
-    </row>
-    <row r="60" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A60" s="0"/>
-      <c r="B60" s="0"/>
-      <c r="C60" s="0"/>
-      <c r="D60" s="0"/>
-      <c r="E60" s="0"/>
-      <c r="F60" s="0"/>
-    </row>
-    <row r="61" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="33"/>
-      <c r="B61" s="34" t="s">
-        <v>81</v>
-      </c>
-      <c r="C61" s="33"/>
-      <c r="D61" s="33"/>
-      <c r="E61" s="33"/>
-      <c r="F61" s="33"/>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="36" t="n">
+      <c r="E62" s="0"/>
+      <c r="F62" s="0"/>
+    </row>
+    <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="0"/>
+      <c r="B63" s="0"/>
+      <c r="C63" s="0"/>
+      <c r="D63" s="0"/>
+      <c r="E63" s="0"/>
+      <c r="F63" s="0"/>
+    </row>
+    <row r="64" s="8" customFormat="true" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="42"/>
+      <c r="B64" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="C64" s="42"/>
+      <c r="D64" s="42"/>
+      <c r="E64" s="42"/>
+      <c r="F64" s="42"/>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="B62" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="C62" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="D62" s="36" t="n">
+      <c r="B65" s="46" t="s">
+        <v>89</v>
+      </c>
+      <c r="C65" s="65" t="s">
+        <v>90</v>
+      </c>
+      <c r="D65" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E62" s="36" t="s">
-        <v>84</v>
-      </c>
-      <c r="F62" s="38"/>
-    </row>
-    <row r="63" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="36" t="n">
-        <f aca="false">A62+1</f>
-        <v>2</v>
-      </c>
-      <c r="B63" s="37" t="s">
-        <v>85</v>
-      </c>
-      <c r="C63" s="36"/>
-      <c r="D63" s="36" t="n">
+      <c r="E65" s="45" t="s">
+        <v>91</v>
+      </c>
+      <c r="F65" s="47"/>
+    </row>
+    <row r="66" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="45" t="n">
+        <f aca="false">A65+1</f>
+        <v>2</v>
+      </c>
+      <c r="B66" s="46" t="s">
+        <v>92</v>
+      </c>
+      <c r="C66" s="45"/>
+      <c r="D66" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E63" s="36"/>
-      <c r="F63" s="36"/>
-    </row>
-    <row r="64" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="20" t="n">
-        <f aca="false">A63+1</f>
+      <c r="E66" s="45"/>
+      <c r="F66" s="45"/>
+    </row>
+    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A67" s="24" t="n">
+        <f aca="false">A66+1</f>
         <v>3</v>
       </c>
-      <c r="B64" s="21" t="s">
-        <v>86</v>
-      </c>
-      <c r="C64" s="57" t="s">
-        <v>87</v>
-      </c>
-      <c r="D64" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E64" s="0"/>
-      <c r="F64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="20" t="n">
-        <f aca="false">A64+1</f>
+      <c r="B67" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="C67" s="66" t="s">
+        <v>94</v>
+      </c>
+      <c r="D67" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E67" s="0"/>
+      <c r="F67" s="0"/>
+    </row>
+    <row r="68" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="24" t="n">
+        <f aca="false">A67+1</f>
         <v>4</v>
       </c>
-      <c r="B65" s="21" t="s">
-        <v>88</v>
-      </c>
-      <c r="C65" s="57"/>
-      <c r="D65" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E65" s="0"/>
-      <c r="F65" s="0"/>
-    </row>
-    <row r="66" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="20" t="n">
-        <f aca="false">A65+1</f>
-        <v>5</v>
-      </c>
-      <c r="B66" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="C66" s="57" t="s">
-        <v>90</v>
-      </c>
-      <c r="D66" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E66" s="0"/>
-      <c r="F66" s="0"/>
-    </row>
-    <row r="67" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A67" s="36" t="n">
-        <f aca="false">A66+1</f>
-        <v>6</v>
-      </c>
-      <c r="B67" s="37" t="s">
-        <v>91</v>
-      </c>
-      <c r="C67" s="36"/>
-      <c r="D67" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E67" s="36"/>
-      <c r="F67" s="36"/>
-    </row>
-    <row r="68" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="20" t="n">
-        <f aca="false">A67+1</f>
-        <v>7</v>
-      </c>
-      <c r="B68" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C68" s="0"/>
+      <c r="B68" s="25" t="s">
+        <v>95</v>
+      </c>
+      <c r="C68" s="66"/>
       <c r="D68" s="9" t="n">
         <v>2</v>
       </c>
       <c r="E68" s="0"/>
       <c r="F68" s="0"/>
     </row>
-    <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="44" t="n">
+    <row r="69" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="24" t="n">
         <f aca="false">A68+1</f>
+        <v>5</v>
+      </c>
+      <c r="B69" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C69" s="66" t="s">
+        <v>97</v>
+      </c>
+      <c r="D69" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E69" s="0"/>
+      <c r="F69" s="0"/>
+    </row>
+    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="45" t="n">
+        <f aca="false">A69+1</f>
+        <v>6</v>
+      </c>
+      <c r="B70" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="C70" s="45"/>
+      <c r="D70" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E70" s="45"/>
+      <c r="F70" s="45"/>
+    </row>
+    <row r="71" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="24" t="n">
+        <f aca="false">A70+1</f>
+        <v>7</v>
+      </c>
+      <c r="B71" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C71" s="0"/>
+      <c r="D71" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E71" s="0"/>
+      <c r="F71" s="0"/>
+    </row>
+    <row r="72" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="53" t="n">
+        <f aca="false">A71+1</f>
         <v>8</v>
       </c>
-      <c r="B69" s="45" t="s">
-        <v>93</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44" t="n">
+      <c r="B72" s="54" t="s">
+        <v>100</v>
+      </c>
+      <c r="C72" s="53"/>
+      <c r="D72" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-    </row>
-    <row r="70" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="36" t="n">
-        <f aca="false">A69+1</f>
+      <c r="E72" s="53"/>
+      <c r="F72" s="53"/>
+    </row>
+    <row r="73" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="45" t="n">
+        <f aca="false">A72+1</f>
         <v>9</v>
       </c>
-      <c r="B70" s="37" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="36"/>
-      <c r="D70" s="36" t="n">
+      <c r="B73" s="46" t="s">
+        <v>101</v>
+      </c>
+      <c r="C73" s="45"/>
+      <c r="D73" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E70" s="36"/>
-      <c r="F70" s="36"/>
-    </row>
-    <row r="71" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="36" t="n">
-        <f aca="false">A70+1</f>
+      <c r="E73" s="45"/>
+      <c r="F73" s="45"/>
+    </row>
+    <row r="74" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="45" t="n">
+        <f aca="false">A73+1</f>
         <v>10</v>
       </c>
-      <c r="B71" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="C71" s="58"/>
-      <c r="D71" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E71" s="36"/>
-      <c r="F71" s="36"/>
-    </row>
-    <row r="72" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A72" s="20" t="n">
-        <f aca="false">A71+1</f>
+      <c r="B74" s="46" t="s">
+        <v>102</v>
+      </c>
+      <c r="C74" s="67"/>
+      <c r="D74" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E74" s="45"/>
+      <c r="F74" s="45"/>
+    </row>
+    <row r="75" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="24" t="n">
+        <f aca="false">A74+1</f>
         <v>11</v>
       </c>
-      <c r="B72" s="21" t="s">
-        <v>96</v>
-      </c>
-      <c r="C72" s="59" t="s">
-        <v>97</v>
-      </c>
-      <c r="D72" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E72" s="0"/>
-      <c r="F72" s="0"/>
-    </row>
-    <row r="73" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="44" t="n">
-        <f aca="false">A72+1</f>
+      <c r="B75" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C75" s="68" t="s">
+        <v>104</v>
+      </c>
+      <c r="D75" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E75" s="0"/>
+      <c r="F75" s="0"/>
+    </row>
+    <row r="76" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A76" s="53" t="n">
+        <f aca="false">A75+1</f>
         <v>12</v>
       </c>
-      <c r="B73" s="45" t="s">
-        <v>98</v>
-      </c>
-      <c r="C73" s="44"/>
-      <c r="D73" s="44" t="n">
-        <v>2</v>
-      </c>
-      <c r="E73" s="44"/>
-      <c r="F73" s="44"/>
-    </row>
-    <row r="74" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A74" s="20" t="n">
-        <f aca="false">A73+1</f>
+      <c r="B76" s="54" t="s">
+        <v>105</v>
+      </c>
+      <c r="C76" s="53"/>
+      <c r="D76" s="53" t="n">
+        <v>2</v>
+      </c>
+      <c r="E76" s="53"/>
+      <c r="F76" s="53"/>
+    </row>
+    <row r="77" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A77" s="24" t="n">
+        <f aca="false">A76+1</f>
         <v>13</v>
       </c>
-      <c r="B74" s="21" t="s">
-        <v>99</v>
-      </c>
-      <c r="C74" s="57" t="s">
-        <v>100</v>
-      </c>
-      <c r="D74" s="9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E74" s="0"/>
-      <c r="F74" s="0"/>
-    </row>
-    <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="36" t="n">
-        <f aca="false">A74+1</f>
+      <c r="B77" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="C77" s="66" t="s">
+        <v>107</v>
+      </c>
+      <c r="D77" s="9" t="n">
+        <v>2</v>
+      </c>
+      <c r="E77" s="0"/>
+      <c r="F77" s="0"/>
+    </row>
+    <row r="78" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A78" s="45" t="n">
+        <f aca="false">A77+1</f>
         <v>14</v>
       </c>
-      <c r="B75" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="C75" s="36" t="s">
-        <v>102</v>
-      </c>
-      <c r="D75" s="36" t="n">
+      <c r="B78" s="46" t="s">
+        <v>108</v>
+      </c>
+      <c r="C78" s="45" t="s">
+        <v>109</v>
+      </c>
+      <c r="D78" s="45" t="n">
         <v>1</v>
       </c>
-      <c r="E75" s="36"/>
-      <c r="F75" s="36"/>
-    </row>
-    <row r="76" s="62" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A76" s="44" t="n">
-        <f aca="false">A75+1</f>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+    </row>
+    <row r="79" s="71" customFormat="true" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A79" s="53" t="n">
+        <f aca="false">A78+1</f>
         <v>15</v>
       </c>
-      <c r="B76" s="45" t="s">
-        <v>103</v>
-      </c>
-      <c r="C76" s="60" t="s">
-        <v>104</v>
-      </c>
-      <c r="D76" s="44" t="n">
+      <c r="B79" s="54" t="s">
+        <v>110</v>
+      </c>
+      <c r="C79" s="69" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E76" s="44"/>
-      <c r="F76" s="61" t="s">
-        <v>105</v>
-      </c>
-      <c r="G76" s="50"/>
-    </row>
-    <row r="77" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="36" t="n">
-        <f aca="false">A76+1</f>
+      <c r="E79" s="53"/>
+      <c r="F79" s="70" t="s">
+        <v>112</v>
+      </c>
+      <c r="G79" s="59"/>
+    </row>
+    <row r="80" customFormat="false" ht="17.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="45" t="n">
+        <f aca="false">A79+1</f>
         <v>16</v>
       </c>
-      <c r="B77" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="C77" s="36" t="s">
-        <v>47</v>
-      </c>
-      <c r="D77" s="36" t="n">
+      <c r="B80" s="46" t="s">
+        <v>113</v>
+      </c>
+      <c r="C80" s="45" t="s">
+        <v>54</v>
+      </c>
+      <c r="D80" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E77" s="36"/>
-      <c r="F77" s="36" t="s">
-        <v>107</v>
-      </c>
-      <c r="G77" s="54"/>
-    </row>
-    <row r="78" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A78" s="44" t="n">
-        <f aca="false">A77+1</f>
+      <c r="E80" s="45"/>
+      <c r="F80" s="45" t="s">
+        <v>114</v>
+      </c>
+      <c r="G80" s="63"/>
+    </row>
+    <row r="81" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A81" s="53" t="n">
+        <f aca="false">A80+1</f>
         <v>17</v>
       </c>
-      <c r="B78" s="45" t="s">
-        <v>108</v>
-      </c>
-      <c r="C78" s="44"/>
-      <c r="D78" s="44" t="n">
+      <c r="B81" s="54" t="s">
+        <v>115</v>
+      </c>
+      <c r="C81" s="53"/>
+      <c r="D81" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-    </row>
-    <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A79" s="0"/>
-      <c r="B79" s="0"/>
-      <c r="C79" s="0"/>
-      <c r="D79" s="0"/>
-      <c r="E79" s="0"/>
-      <c r="F79" s="0"/>
-    </row>
-    <row r="80" s="8" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="33"/>
-      <c r="B80" s="34" t="s">
-        <v>109</v>
-      </c>
-      <c r="C80" s="33"/>
-      <c r="D80" s="33"/>
-      <c r="E80" s="33"/>
-      <c r="F80" s="33"/>
-    </row>
-    <row r="81" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="44" t="n">
-        <v>1</v>
-      </c>
-      <c r="B81" s="45" t="s">
-        <v>110</v>
-      </c>
-      <c r="C81" s="44"/>
-      <c r="D81" s="44" t="n">
-        <v>3</v>
-      </c>
-      <c r="E81" s="44"/>
-      <c r="F81" s="44"/>
-    </row>
-    <row r="82" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="39" t="n">
-        <f aca="false">A81+1</f>
-        <v>2</v>
-      </c>
-      <c r="B82" s="40" t="s">
-        <v>111</v>
-      </c>
-      <c r="C82" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D82" s="39" t="n">
-        <v>0</v>
-      </c>
+      <c r="E81" s="53"/>
+      <c r="F81" s="53"/>
+    </row>
+    <row r="82" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A82" s="0"/>
+      <c r="B82" s="0"/>
+      <c r="C82" s="0"/>
+      <c r="D82" s="0"/>
       <c r="E82" s="0"/>
       <c r="F82" s="0"/>
     </row>
-    <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="0"/>
-      <c r="B83" s="0"/>
-      <c r="C83" s="0"/>
-      <c r="D83" s="0"/>
-      <c r="E83" s="0"/>
-      <c r="F83" s="0"/>
-    </row>
-    <row r="84" s="8" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="33"/>
-      <c r="B84" s="34" t="s">
-        <v>112</v>
-      </c>
-      <c r="C84" s="33"/>
-      <c r="D84" s="33"/>
-      <c r="E84" s="33"/>
-      <c r="F84" s="33"/>
-    </row>
-    <row r="85" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A85" s="36" t="n">
+    <row r="83" s="8" customFormat="true" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A83" s="42"/>
+      <c r="B83" s="43" t="s">
+        <v>116</v>
+      </c>
+      <c r="C83" s="42"/>
+      <c r="D83" s="42"/>
+      <c r="E83" s="42"/>
+      <c r="F83" s="42"/>
+    </row>
+    <row r="84" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A84" s="53" t="n">
         <v>1</v>
       </c>
-      <c r="B85" s="37" t="s">
-        <v>113</v>
-      </c>
-      <c r="C85" s="36"/>
-      <c r="D85" s="36" t="n">
-        <v>2</v>
-      </c>
-      <c r="E85" s="36"/>
-      <c r="F85" s="36" t="s">
-        <v>114</v>
-      </c>
-      <c r="G85" s="29"/>
-    </row>
-    <row r="86" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A86" s="44" t="n">
-        <f aca="false">A85+1</f>
-        <v>2</v>
-      </c>
-      <c r="B86" s="45" t="s">
-        <v>115</v>
-      </c>
-      <c r="C86" s="44" t="s">
-        <v>116</v>
-      </c>
-      <c r="D86" s="44" t="n">
+      <c r="B84" s="54" t="s">
+        <v>117</v>
+      </c>
+      <c r="C84" s="53"/>
+      <c r="D84" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E86" s="44"/>
-      <c r="F86" s="44"/>
-    </row>
-    <row r="87" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A87" s="44" t="n">
-        <f aca="false">A86+1</f>
+      <c r="E84" s="53"/>
+      <c r="F84" s="53"/>
+    </row>
+    <row r="85" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A85" s="48" t="n">
+        <f aca="false">A84+1</f>
+        <v>2</v>
+      </c>
+      <c r="B85" s="49" t="s">
+        <v>118</v>
+      </c>
+      <c r="C85" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D85" s="48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E85" s="0"/>
+      <c r="F85" s="0"/>
+    </row>
+    <row r="86" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="0"/>
+      <c r="B86" s="0"/>
+      <c r="C86" s="0"/>
+      <c r="D86" s="0"/>
+      <c r="E86" s="0"/>
+      <c r="F86" s="0"/>
+    </row>
+    <row r="87" s="8" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A87" s="42"/>
+      <c r="B87" s="43" t="s">
+        <v>119</v>
+      </c>
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+    </row>
+    <row r="88" customFormat="false" ht="38.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A88" s="45" t="n">
+        <v>1</v>
+      </c>
+      <c r="B88" s="46" t="s">
+        <v>120</v>
+      </c>
+      <c r="C88" s="45"/>
+      <c r="D88" s="45" t="n">
+        <v>2</v>
+      </c>
+      <c r="E88" s="45"/>
+      <c r="F88" s="45" t="s">
+        <v>121</v>
+      </c>
+      <c r="G88" s="38"/>
+    </row>
+    <row r="89" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="53" t="n">
+        <f aca="false">A88+1</f>
+        <v>2</v>
+      </c>
+      <c r="B89" s="54" t="s">
+        <v>122</v>
+      </c>
+      <c r="C89" s="53" t="s">
+        <v>123</v>
+      </c>
+      <c r="D89" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="B87" s="45" t="s">
-        <v>117</v>
-      </c>
-      <c r="C87" s="44"/>
-      <c r="D87" s="44" t="n">
+      <c r="E89" s="53"/>
+      <c r="F89" s="53"/>
+    </row>
+    <row r="90" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="53" t="n">
+        <f aca="false">A89+1</f>
         <v>3</v>
       </c>
-      <c r="E87" s="44"/>
-      <c r="F87" s="44"/>
-    </row>
-    <row r="88" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A88" s="44" t="n">
-        <f aca="false">A87+1</f>
+      <c r="B90" s="54" t="s">
+        <v>124</v>
+      </c>
+      <c r="C90" s="53"/>
+      <c r="D90" s="53" t="n">
+        <v>3</v>
+      </c>
+      <c r="E90" s="53"/>
+      <c r="F90" s="53"/>
+    </row>
+    <row r="91" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="53" t="n">
+        <f aca="false">A90+1</f>
         <v>4</v>
       </c>
-      <c r="B88" s="45" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="60" t="s">
-        <v>119</v>
-      </c>
-      <c r="D88" s="44" t="n">
+      <c r="B91" s="54" t="s">
+        <v>125</v>
+      </c>
+      <c r="C91" s="69" t="s">
+        <v>126</v>
+      </c>
+      <c r="D91" s="53" t="n">
         <v>3</v>
       </c>
-      <c r="E88" s="44"/>
-      <c r="F88" s="44"/>
-    </row>
-    <row r="89" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A89" s="36" t="n">
-        <f aca="false">A88+1</f>
+      <c r="E91" s="53"/>
+      <c r="F91" s="53"/>
+    </row>
+    <row r="92" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="45" t="n">
+        <f aca="false">A91+1</f>
         <v>5</v>
       </c>
-      <c r="B89" s="37" t="s">
-        <v>120</v>
-      </c>
-      <c r="C89" s="42" t="s">
-        <v>121</v>
-      </c>
-      <c r="D89" s="36" t="n">
+      <c r="B92" s="46" t="s">
+        <v>127</v>
+      </c>
+      <c r="C92" s="51" t="s">
+        <v>128</v>
+      </c>
+      <c r="D92" s="45" t="n">
         <v>3</v>
       </c>
-      <c r="E89" s="36"/>
-      <c r="F89" s="36"/>
-    </row>
-    <row r="90" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A90" s="39" t="n">
-        <f aca="false">A89+1</f>
+      <c r="E92" s="45"/>
+      <c r="F92" s="45"/>
+    </row>
+    <row r="93" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A93" s="48" t="n">
+        <f aca="false">A92+1</f>
         <v>6</v>
       </c>
-      <c r="B90" s="40" t="s">
-        <v>122</v>
-      </c>
-      <c r="C90" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D90" s="39" t="n">
+      <c r="B93" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="C93" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="91" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A91" s="39" t="n">
-        <f aca="false">A90+1</f>
+    <row r="94" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="48" t="n">
+        <f aca="false">A93+1</f>
         <v>7</v>
       </c>
-      <c r="B91" s="40" t="s">
-        <v>124</v>
-      </c>
-      <c r="C91" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D91" s="39" t="n">
+      <c r="B94" s="49" t="s">
+        <v>131</v>
+      </c>
+      <c r="C94" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D94" s="48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="92" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A92" s="39" t="n">
-        <f aca="false">A91+1</f>
+    <row r="95" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A95" s="48" t="n">
+        <f aca="false">A94+1</f>
         <v>8</v>
       </c>
-      <c r="B92" s="40" t="s">
-        <v>125</v>
-      </c>
-      <c r="C92" s="39" t="s">
-        <v>123</v>
-      </c>
-      <c r="D92" s="39" t="n">
+      <c r="B95" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="C95" s="48" t="s">
+        <v>130</v>
+      </c>
+      <c r="D95" s="48" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="93" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A93" s="39" t="n">
-        <f aca="false">A92+1</f>
+    <row r="96" customFormat="false" ht="17.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A96" s="48" t="n">
+        <f aca="false">A95+1</f>
         <v>9</v>
       </c>
-      <c r="B93" s="40" t="s">
-        <v>126</v>
-      </c>
-      <c r="C93" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="D93" s="39" t="n">
+      <c r="B96" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="C96" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="48" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C32:C33"/>
+    <mergeCell ref="C35:C36"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -2547,163 +2661,163 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="63" width="6.15816326530612"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="47.0867346938776"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="41.3622448979592"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="53.4591836734694"/>
-    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.85714285714286"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="72" width="6.15816326530612"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="2" width="48.7040816326531"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="2" width="42.6581632653061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="55.1836734693878"/>
+    <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.63775510204082"/>
   </cols>
   <sheetData>
     <row r="1" s="8" customFormat="true" ht="18.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="33"/>
-      <c r="B1" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="C1" s="34" t="s">
+      <c r="A1" s="42"/>
+      <c r="B1" s="43" t="s">
+        <v>134</v>
+      </c>
+      <c r="C1" s="43" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="8" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A2" s="64" t="n">
+      <c r="A2" s="73" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="C2" s="21" t="s">
-        <v>130</v>
+      <c r="B2" s="25" t="s">
+        <v>136</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>137</v>
       </c>
       <c r="D2" s="0" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="64" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" s="21" t="s">
-        <v>132</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>133</v>
+      <c r="A3" s="73" t="n">
+        <v>2</v>
+      </c>
+      <c r="B3" s="25" t="s">
+        <v>139</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="64" t="n">
+      <c r="A4" s="73" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="21" t="s">
-        <v>134</v>
+      <c r="B4" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="C4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="64" t="n">
+      <c r="A5" s="73" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="21" t="s">
-        <v>135</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>136</v>
-      </c>
-      <c r="D5" s="65" t="s">
-        <v>137</v>
+      <c r="B5" s="25" t="s">
+        <v>142</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>143</v>
+      </c>
+      <c r="D5" s="74" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="64" t="n">
+      <c r="A6" s="73" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="21" t="s">
-        <v>138</v>
+      <c r="B6" s="25" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="64" t="n">
+      <c r="A7" s="73" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>139</v>
-      </c>
-      <c r="D7" s="65" t="s">
-        <v>137</v>
+      <c r="B7" s="25" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" s="74" t="s">
+        <v>144</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="64" t="n">
+      <c r="A8" s="73" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="21" t="s">
-        <v>140</v>
-      </c>
-      <c r="D8" s="65" t="s">
-        <v>141</v>
+      <c r="B8" s="25" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" s="74" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="64" t="n">
+      <c r="A9" s="73" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="66" t="s">
-        <v>142</v>
+      <c r="B9" s="75" t="s">
+        <v>149</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B10" s="67" t="s">
-        <v>143</v>
-      </c>
-      <c r="D10" s="68" t="s">
-        <v>144</v>
+      <c r="B10" s="76" t="s">
+        <v>150</v>
+      </c>
+      <c r="D10" s="77" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0"/>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="68" t="s">
-        <v>145</v>
+      <c r="B12" s="77" t="s">
+        <v>152</v>
       </c>
       <c r="E12" s="0" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="68" t="s">
-        <v>147</v>
+      <c r="B13" s="77" t="s">
+        <v>154</v>
       </c>
       <c r="E13" s="0" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="G13" s="0" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="68" t="s">
-        <v>150</v>
+      <c r="B15" s="77" t="s">
+        <v>157</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="69" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="70" t="s">
-        <v>152</v>
-      </c>
-      <c r="F16" s="70" t="s">
-        <v>153</v>
+      <c r="B16" s="78" t="s">
+        <v>158</v>
+      </c>
+      <c r="E16" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="F16" s="79" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="21" t="s">
-        <v>154</v>
+      <c r="B17" s="25" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2797,13 +2911,13 @@
       <c r="B47" s="0"/>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B48" s="67" t="s">
-        <v>155</v>
+      <c r="B48" s="76" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="21" t="s">
-        <v>154</v>
+      <c r="B49" s="25" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>
